--- a/exdata/ficha_campo.xlsx
+++ b/exdata/ficha_campo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/GoogleDrive-ajperez@go.ugr.es/My Drive/_proyectos/fameLorite/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/GoogleDrive-ajperez@go.ugr.es/My Drive/_proyectos/fameLorite/fameR/exdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BD2A69-A36D-D44C-B5C8-3720EEB36622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B760AC-82B7-844B-8D75-6F23C457194D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-2500" windowWidth="33600" windowHeight="20500" xr2:uid="{D6981F94-86A3-C24C-A176-9B22273DF06F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{D6981F94-86A3-C24C-A176-9B22273DF06F}"/>
   </bookViews>
   <sheets>
     <sheet name="datos_generales" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="cobertura_veg" sheetId="15" r:id="rId8"/>
     <sheet name="dicc_tratamientos" sheetId="3" r:id="rId9"/>
     <sheet name="dicc_vallado" sheetId="10" r:id="rId10"/>
+    <sheet name="dicc_crs" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="138">
   <si>
     <t>aquilegia</t>
   </si>
@@ -98,9 +98,6 @@
     <t>dmayor_cm</t>
   </si>
   <si>
-    <t>dmeno_cm</t>
-  </si>
-  <si>
     <t>tallo_comido</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>crs</t>
   </si>
   <si>
-    <t>UTM-ETRS89</t>
-  </si>
-  <si>
     <t>vallado_tipo</t>
   </si>
   <si>
@@ -351,6 +345,120 @@
   </si>
   <si>
     <t>n_contactos</t>
+  </si>
+  <si>
+    <t>crs_code</t>
+  </si>
+  <si>
+    <t>crs_name</t>
+  </si>
+  <si>
+    <t>crs_url</t>
+  </si>
+  <si>
+    <t>Proyección WGS84 / Pseudo-Mercator</t>
+  </si>
+  <si>
+    <t>EPSG:3857</t>
+  </si>
+  <si>
+    <t>Coordenadas Geográficas ED50</t>
+  </si>
+  <si>
+    <t>EPSG:4230</t>
+  </si>
+  <si>
+    <t>Coordenadas Elipsoidales ETRS89 IDEE</t>
+  </si>
+  <si>
+    <t>EPSG:4258</t>
+  </si>
+  <si>
+    <t>Coordenadas Geográficas WGS84</t>
+  </si>
+  <si>
+    <t>EPSG:4326</t>
+  </si>
+  <si>
+    <t>Proyección UTM ED50 Huso 28 N</t>
+  </si>
+  <si>
+    <t>EPSG:23028</t>
+  </si>
+  <si>
+    <t>Proyección UTM ED50 Huso 29 N</t>
+  </si>
+  <si>
+    <t>EPSG:23029</t>
+  </si>
+  <si>
+    <t>Proyección UTM ED50 Huso 30 N</t>
+  </si>
+  <si>
+    <t>EPSG:23030</t>
+  </si>
+  <si>
+    <t>Proyección UTM ED50 Huso 31 N</t>
+  </si>
+  <si>
+    <t>EPSG:23031</t>
+  </si>
+  <si>
+    <t>Proyección UTM ETRS89 Huso 28 N</t>
+  </si>
+  <si>
+    <t>EPSG:25828</t>
+  </si>
+  <si>
+    <t>Proyección UTM ETRS89 Huso 29 N</t>
+  </si>
+  <si>
+    <t>EPSG:25829</t>
+  </si>
+  <si>
+    <t>Proyección UTM ETRS89 Huso 30 N</t>
+  </si>
+  <si>
+    <t>EPSG:25830</t>
+  </si>
+  <si>
+    <t>Proyección UTM ETRS89 Huso 31 N</t>
+  </si>
+  <si>
+    <t>EPSG:25831</t>
+  </si>
+  <si>
+    <t>Proyección UTM WGS84 Huso 28 N</t>
+  </si>
+  <si>
+    <t>EPSG:32628</t>
+  </si>
+  <si>
+    <t>Proyección UTM WGS84 Huso 29 N</t>
+  </si>
+  <si>
+    <t>EPSG:32629</t>
+  </si>
+  <si>
+    <t>Proyección UTM WGS84 Huso 30 N</t>
+  </si>
+  <si>
+    <t>EPSG:32630</t>
+  </si>
+  <si>
+    <t>Proyección UTM WGS84 Huso 31 N</t>
+  </si>
+  <si>
+    <t>EPSG:32631</t>
+  </si>
+  <si>
+    <t>dmenor_cm</t>
+  </si>
+  <si>
+    <t>id_crs</t>
+  </si>
+  <si>
+    <t>25830 | Proyección UTM ETRS89 Huso 30 N</t>
   </si>
 </sst>
 </file>
@@ -361,7 +469,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -435,6 +543,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -485,27 +609,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,12 +651,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -853,53 +982,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8FDB5D-441D-B146-8059-0E15D8012988}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="32" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>9</v>
       </c>
     </row>
@@ -907,7 +1036,7 @@
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
     </row>
@@ -915,102 +1044,102 @@
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="5">
+        <v>27</v>
+      </c>
+      <c r="B7" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="5" t="str">
+        <v>29</v>
+      </c>
+      <c r="B8" s="32" t="str">
         <f>CONCATENATE(B$4, "-", IF(B$6="vallado", "V", "F"), B$7)</f>
         <v>AQ-BE-F1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="6">
+        <v>30</v>
+      </c>
+      <c r="B9" s="33">
         <v>45270</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1018,63 +1147,63 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="30">
+        <v>81</v>
+      </c>
+      <c r="B24" s="34">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="30">
+        <v>80</v>
+      </c>
+      <c r="B25" s="34">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="30">
+        <v>79</v>
+      </c>
+      <c r="B26" s="34">
         <f>B$25/B$24</f>
         <v>2.06</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="30">
+        <v>81</v>
+      </c>
+      <c r="B29" s="34">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="30">
+        <v>96</v>
+      </c>
+      <c r="B30" s="34">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="30">
+        <v>97</v>
+      </c>
+      <c r="B31" s="34">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="30">
+        <v>98</v>
+      </c>
+      <c r="B32" s="34">
         <v>34</v>
       </c>
     </row>
@@ -1083,9 +1212,10 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="formato dd-mm-yyyy" prompt="formato dd-mm-yyyy" sqref="B9" xr:uid="{E9B0023C-2EDF-6446-8F93-430411DFB81C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Seleccione el tipo de tratamiento" xr:uid="{36434D86-CA68-1B42-A2A1-196191BABF50}">
           <x14:formula1>
             <xm:f>dicc_tratamientos!$B$2:$B$3</xm:f>
@@ -1098,6 +1228,12 @@
           </x14:formula1>
           <xm:sqref>B16</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4C6D8D4-82E6-7E44-A972-39BF62AAB8E7}">
+          <x14:formula1>
+            <xm:f>dicc_crs!$A$2:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>B14</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1106,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50C2619-4C66-124D-AB36-8CED6CB66CA5}">
-  <sheetPr>
+  <sheetPr codeName="Sheet10">
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:C3"/>
@@ -1124,7 +1260,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1138,10 +1274,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1149,20 +1285,315 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1DC09B-B3F3-8A4B-83C3-F60AA8F8FA89}">
+  <sheetPr codeName="Sheet11">
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.83203125" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>CONCATENATE(B2," | ", C2)</f>
+        <v>3857 | Proyección WGS84 / Pseudo-Mercator</v>
+      </c>
+      <c r="B2" s="28">
+        <v>3857</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>CONCATENATE(B3," | ", C3)</f>
+        <v>4230 | Coordenadas Geográficas ED50</v>
+      </c>
+      <c r="B3" s="28">
+        <v>4230</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>CONCATENATE(B4," | ", C4)</f>
+        <v>4258 | Coordenadas Elipsoidales ETRS89 IDEE</v>
+      </c>
+      <c r="B4" s="28">
+        <v>4258</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>CONCATENATE(B5," | ", C5)</f>
+        <v>4326 | Coordenadas Geográficas WGS84</v>
+      </c>
+      <c r="B5" s="28">
+        <v>4326</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>CONCATENATE(B6," | ", C6)</f>
+        <v>23028 | Proyección UTM ED50 Huso 28 N</v>
+      </c>
+      <c r="B6" s="28">
+        <v>23028</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>CONCATENATE(B7," | ", C7)</f>
+        <v>23029 | Proyección UTM ED50 Huso 29 N</v>
+      </c>
+      <c r="B7" s="28">
+        <v>23029</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>CONCATENATE(B8," | ", C8)</f>
+        <v>23030 | Proyección UTM ED50 Huso 30 N</v>
+      </c>
+      <c r="B8" s="28">
+        <v>23030</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>CONCATENATE(B9," | ", C9)</f>
+        <v>23031 | Proyección UTM ED50 Huso 31 N</v>
+      </c>
+      <c r="B9" s="28">
+        <v>23031</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>CONCATENATE(B10," | ", C10)</f>
+        <v>25828 | Proyección UTM ETRS89 Huso 28 N</v>
+      </c>
+      <c r="B10" s="28">
+        <v>25828</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>CONCATENATE(B11," | ", C11)</f>
+        <v>25829 | Proyección UTM ETRS89 Huso 29 N</v>
+      </c>
+      <c r="B11" s="28">
+        <v>25829</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>CONCATENATE(B12," | ", C12)</f>
+        <v>25830 | Proyección UTM ETRS89 Huso 30 N</v>
+      </c>
+      <c r="B12" s="28">
+        <v>25830</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>CONCATENATE(B13," | ", C13)</f>
+        <v>25831 | Proyección UTM ETRS89 Huso 31 N</v>
+      </c>
+      <c r="B13" s="28">
+        <v>25831</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>CONCATENATE(B14," | ", C14)</f>
+        <v>32628 | Proyección UTM WGS84 Huso 28 N</v>
+      </c>
+      <c r="B14" s="28">
+        <v>32628</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>CONCATENATE(B15," | ", C15)</f>
+        <v>32629 | Proyección UTM WGS84 Huso 29 N</v>
+      </c>
+      <c r="B15" s="28">
+        <v>32629</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>CONCATENATE(B16," | ", C16)</f>
+        <v>32630 | Proyección UTM WGS84 Huso 30 N</v>
+      </c>
+      <c r="B16" s="28">
+        <v>32630</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>CONCATENATE(B17," | ", C17)</f>
+        <v>32631 | Proyección UTM WGS84 Huso 31 N</v>
+      </c>
+      <c r="B17" s="28">
+        <v>32631</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://spatialreference.org/ref/sr-org/7483/" xr:uid="{3DF6FE74-3CF9-DA4A-8E42-2935AF203B2C}"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://spatialreference.org/ref/epsg/4230/" xr:uid="{3126732C-5118-354F-8947-AD8968BA2E04}"/>
+    <hyperlink ref="D4" r:id="rId3" display="http://spatialreference.org/ref/epsg/4258/" xr:uid="{8E8A3C11-167A-734F-9786-07F9E3715FD3}"/>
+    <hyperlink ref="D5" r:id="rId4" display="http://spatialreference.org/ref/epsg/4326/" xr:uid="{C3108503-6BDA-E24C-B8B9-BEE42F15415D}"/>
+    <hyperlink ref="D6" r:id="rId5" display="http://spatialreference.org/ref/epsg/23028/" xr:uid="{FC3F773B-2DDF-294E-838B-96CF2CF65FAD}"/>
+    <hyperlink ref="D7" r:id="rId6" display="http://spatialreference.org/ref/epsg/23029/" xr:uid="{B6177EED-555B-9C4A-BD1E-753281B21EDD}"/>
+    <hyperlink ref="D8" r:id="rId7" display="http://spatialreference.org/ref/epsg/23030/" xr:uid="{9D90FD50-E0C9-2847-959C-4213662F53F9}"/>
+    <hyperlink ref="D9" r:id="rId8" display="http://spatialreference.org/ref/epsg/23031/" xr:uid="{F412F448-8350-6940-8E11-4C6BAC9F7F2B}"/>
+    <hyperlink ref="D10" r:id="rId9" display="http://spatialreference.org/ref/epsg/25828/" xr:uid="{4959FBC5-D0F7-0743-98E8-42C0AEA520F7}"/>
+    <hyperlink ref="D11" r:id="rId10" display="http://spatialreference.org/ref/epsg/25829/" xr:uid="{F1EB0D8A-BED1-B348-83E6-1DAD9B1C86C8}"/>
+    <hyperlink ref="D12" r:id="rId11" display="http://spatialreference.org/ref/epsg/25830/" xr:uid="{9EF3E476-152D-DE4A-8E59-F82A65A39184}"/>
+    <hyperlink ref="D13" r:id="rId12" display="http://spatialreference.org/ref/epsg/25831/" xr:uid="{D6F885CE-765E-F149-9899-1D8B0F6639C0}"/>
+    <hyperlink ref="D14" r:id="rId13" display="http://spatialreference.org/ref/epsg/32628/" xr:uid="{7A968898-AB27-7847-8E94-56466EB82478}"/>
+    <hyperlink ref="D15" r:id="rId14" display="http://spatialreference.org/ref/epsg/32629/" xr:uid="{C6F0C6B0-98A2-1A40-B1F7-C174C7EC3DE8}"/>
+    <hyperlink ref="D16" r:id="rId15" display="http://spatialreference.org/ref/epsg/32630/" xr:uid="{516D2C67-1A51-BC4C-8A0C-042EAF6891CB}"/>
+    <hyperlink ref="D17" r:id="rId16" display="http://spatialreference.org/ref/epsg/32631/" xr:uid="{98109E5C-E4B7-E641-A523-55A26414C7FF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F72CDF-40A1-7D4D-9C3A-64313940B765}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:U7"/>
@@ -1202,61 +1633,61 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="K1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="L1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="M1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="O1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="P1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="Q1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="R1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="S1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="T1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="U1" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1272,67 +1703,67 @@
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="11">
+      <c r="D2" s="5"/>
+      <c r="E2" s="8">
         <v>8.16</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="9">
         <v>8.6650804360973588</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="9">
         <v>7.7417521929040305</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="9">
         <v>18.502077488546806</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="9">
         <v>65.091089882451811</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="10">
         <v>3.6476959989961393</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="10">
         <v>16.78931937172775</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="10">
         <f t="shared" ref="L2" si="0">J2*1.724</f>
         <v>6.2886279022693437</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="11">
         <v>0.24324999999999999</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="11">
         <v>13.74</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="10">
         <v>648</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="10">
         <v>106.56397174254305</v>
       </c>
-      <c r="Q2" s="13">
-        <v>0</v>
-      </c>
-      <c r="R2" s="13">
+      <c r="Q2" s="10">
+        <v>0</v>
+      </c>
+      <c r="R2" s="10">
         <v>1.7742901295133415</v>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="10">
         <v>19.037653551805317</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="10">
         <v>0.91325323783359402</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="10">
         <v>1.2617174254317096</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+    <row r="7" spans="1:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1341,7 +1772,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60A0C8E-EC36-4E4A-BE02-92AE6A04DA6F}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
@@ -1360,35 +1791,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B2" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C2" s="20" t="str">
+      <c r="A2" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B2" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C2" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -1403,15 +1834,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B3" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C3" s="20" t="str">
+      <c r="A3" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B3" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C3" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -1426,15 +1857,15 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B4" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C4" s="20" t="str">
+      <c r="A4" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B4" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C4" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -1449,15 +1880,15 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B5" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C5" s="20" t="str">
+      <c r="A5" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B5" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C5" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -1471,13 +1902,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+    <row r="7" spans="1:6" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1486,7 +1917,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C266956-6266-F344-84D9-8E60A9D39E50}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
@@ -1500,47 +1931,47 @@
     <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13" style="21" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B2" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C2" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="A2" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B2" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C2" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="D2" s="8">
         <v>100</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>11</v>
       </c>
       <c r="F2">
@@ -1548,12 +1979,12 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="23"/>
+    <row r="7" spans="1:6" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1562,105 +1993,105 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC13B5C-2CAC-A748-8F45-2DBF8B66ABE1}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13" style="21" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
     <col min="12" max="12" width="21.5" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="L1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B2" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C2" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E2" s="26">
-        <v>1</v>
-      </c>
-      <c r="F2" s="27">
-        <v>1</v>
-      </c>
-      <c r="G2" s="27">
-        <v>0</v>
-      </c>
-      <c r="H2" s="27">
+      <c r="A2" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B2" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C2" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+      <c r="F2" s="24">
+        <v>1</v>
+      </c>
+      <c r="G2" s="24">
+        <v>0</v>
+      </c>
+      <c r="H2" s="24">
         <v>28</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="24">
         <v>20</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="24">
         <v>16</v>
       </c>
-      <c r="K2" s="27"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1669,41 +2100,41 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B3" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C3" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E3" s="26">
+      <c r="A3" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B3" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C3" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E3" s="23">
         <v>2</v>
       </c>
-      <c r="F3" s="27">
-        <v>1</v>
-      </c>
-      <c r="G3" s="27">
-        <v>1</v>
-      </c>
-      <c r="H3" s="27">
+      <c r="F3" s="24">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24">
+        <v>1</v>
+      </c>
+      <c r="H3" s="24">
         <v>20</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="24">
         <v>13</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="24">
         <v>11</v>
       </c>
-      <c r="K3" s="27"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1712,41 +2143,41 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B4" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C4" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="A4" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B4" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C4" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E4" s="23">
         <v>3</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="G4" s="27">
-        <v>0</v>
-      </c>
-      <c r="H4" s="27">
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24">
         <v>21</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="24">
         <v>17</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="24">
         <v>14</v>
       </c>
-      <c r="K4" s="27"/>
+      <c r="K4" s="24"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1755,41 +2186,41 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B5" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C5" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="A5" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B5" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C5" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E5" s="23">
         <v>4</v>
       </c>
-      <c r="F5" s="27">
-        <v>1</v>
-      </c>
-      <c r="G5" s="27">
-        <v>0</v>
-      </c>
-      <c r="H5" s="27">
+      <c r="F5" s="24">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+      <c r="H5" s="24">
         <v>25</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="24">
         <v>15</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="24">
         <v>15</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1798,84 +2229,84 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B6" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C6" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="A6" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B6" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C6" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E6" s="23">
         <v>5</v>
       </c>
-      <c r="F6" s="27">
-        <v>1</v>
-      </c>
-      <c r="G6" s="27">
-        <v>0</v>
-      </c>
-      <c r="H6" s="27">
+      <c r="F6" s="24">
+        <v>1</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+      <c r="H6" s="24">
         <v>19</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="24">
         <v>16</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="24">
         <v>18</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="14" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B7" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C7" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E7" s="26">
+    <row r="7" spans="1:16" s="11" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B7" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C7" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E7" s="23">
         <v>6</v>
       </c>
-      <c r="F7" s="27">
-        <v>1</v>
-      </c>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="27">
+      <c r="F7" s="24">
+        <v>1</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24">
         <v>20</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="24">
         <v>13</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="24">
         <v>15</v>
       </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1884,213 +2315,213 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B8" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C8" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="A8" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B8" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C8" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E8" s="23">
         <v>7</v>
       </c>
-      <c r="F8" s="27">
-        <v>1</v>
-      </c>
-      <c r="G8" s="27">
-        <v>1</v>
-      </c>
-      <c r="H8" s="27">
+      <c r="F8" s="24">
+        <v>1</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1</v>
+      </c>
+      <c r="H8" s="24">
         <v>16.5</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="24">
         <v>14</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="24">
         <v>10</v>
       </c>
-      <c r="K8" s="27"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B9" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C9" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="A9" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B9" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C9" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E9" s="23">
         <v>8</v>
       </c>
-      <c r="F9" s="27">
-        <v>1</v>
-      </c>
-      <c r="G9" s="27">
-        <v>0</v>
-      </c>
-      <c r="H9" s="27">
+      <c r="F9" s="24">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0</v>
+      </c>
+      <c r="H9" s="24">
         <v>17</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="24">
         <v>19</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="24">
         <v>15</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M9" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B10" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C10" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E10" s="26">
+      <c r="A10" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B10" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C10" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E10" s="23">
         <v>9</v>
       </c>
-      <c r="F10" s="27">
-        <v>1</v>
-      </c>
-      <c r="G10" s="27">
-        <v>0</v>
-      </c>
-      <c r="H10" s="27">
+      <c r="F10" s="24">
+        <v>1</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0</v>
+      </c>
+      <c r="H10" s="24">
         <v>16.5</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="24">
         <v>20</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="24">
         <v>19</v>
       </c>
-      <c r="K10" s="27"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M10" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B11" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C11" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="A11" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B11" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C11" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E11" s="23">
         <v>10</v>
       </c>
-      <c r="F11" s="27">
-        <v>1</v>
-      </c>
-      <c r="G11" s="27">
-        <v>0</v>
-      </c>
-      <c r="H11" s="27">
+      <c r="F11" s="24">
+        <v>1</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
         <v>21</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="24">
         <v>15</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="24">
         <v>19</v>
       </c>
-      <c r="K11" s="27"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B12" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C12" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E12" s="26">
+      <c r="A12" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B12" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C12" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E12" s="23">
         <v>11</v>
       </c>
-      <c r="F12" s="27">
-        <v>1</v>
-      </c>
-      <c r="G12" s="27">
-        <v>0</v>
-      </c>
-      <c r="H12" s="27">
+      <c r="F12" s="24">
+        <v>1</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0</v>
+      </c>
+      <c r="H12" s="24">
         <v>11</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="24">
         <v>8.5</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="24">
         <v>8.5</v>
       </c>
-      <c r="K12" s="27"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2099,84 +2530,84 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B13" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C13" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E13" s="26">
+      <c r="A13" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B13" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C13" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E13" s="23">
         <v>12</v>
       </c>
-      <c r="F13" s="27">
-        <v>1</v>
-      </c>
-      <c r="G13" s="27">
-        <v>0</v>
-      </c>
-      <c r="H13" s="27">
+      <c r="F13" s="24">
+        <v>1</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0</v>
+      </c>
+      <c r="H13" s="24">
         <v>18.5</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="24">
         <v>14</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="24">
         <v>10</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M13" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B14" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C14" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E14" s="26">
+      <c r="A14" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B14" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C14" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E14" s="23">
         <v>13</v>
       </c>
-      <c r="F14" s="27">
-        <v>1</v>
-      </c>
-      <c r="G14" s="27">
-        <v>0</v>
-      </c>
-      <c r="H14" s="27">
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0</v>
+      </c>
+      <c r="H14" s="24">
         <v>20.5</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="24">
         <v>14</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="24">
         <v>11</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="2" t="s">
         <v>11</v>
       </c>
@@ -2185,41 +2616,41 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B15" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C15" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E15" s="26">
+      <c r="A15" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B15" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C15" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E15" s="23">
         <v>14</v>
       </c>
-      <c r="F15" s="27">
-        <v>1</v>
-      </c>
-      <c r="G15" s="27">
-        <v>0</v>
-      </c>
-      <c r="H15" s="27">
+      <c r="F15" s="24">
+        <v>1</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
         <v>19.5</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="24">
         <v>10</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="24">
         <v>9</v>
       </c>
-      <c r="K15" s="27"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="2" t="s">
         <v>11</v>
       </c>
@@ -2228,41 +2659,41 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B16" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C16" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E16" s="26">
+      <c r="A16" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B16" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C16" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E16" s="23">
         <v>15</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="24">
         <v>2</v>
       </c>
-      <c r="G16" s="27">
-        <v>1</v>
-      </c>
-      <c r="H16" s="27">
+      <c r="G16" s="24">
+        <v>1</v>
+      </c>
+      <c r="H16" s="24">
         <v>19</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="24">
         <v>14</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="24">
         <v>15</v>
       </c>
-      <c r="K16" s="27"/>
+      <c r="K16" s="24"/>
       <c r="L16" s="2" t="s">
         <v>11</v>
       </c>
@@ -2271,41 +2702,41 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B17" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C17" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E17" s="26">
+      <c r="A17" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B17" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C17" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E17" s="23">
         <v>16</v>
       </c>
-      <c r="F17" s="27">
-        <v>1</v>
-      </c>
-      <c r="G17" s="27">
-        <v>0</v>
-      </c>
-      <c r="H17" s="27">
+      <c r="F17" s="24">
+        <v>1</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
         <v>19.5</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="24">
         <v>18</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="24">
         <v>15</v>
       </c>
-      <c r="K17" s="27"/>
+      <c r="K17" s="24"/>
       <c r="L17" s="2" t="s">
         <v>11</v>
       </c>
@@ -2314,41 +2745,41 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B18" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C18" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E18" s="26">
+      <c r="A18" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B18" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C18" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E18" s="23">
         <v>17</v>
       </c>
-      <c r="F18" s="27">
-        <v>1</v>
-      </c>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="27">
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24">
         <v>23</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="24">
         <v>20</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="24">
         <v>15</v>
       </c>
-      <c r="K18" s="27"/>
+      <c r="K18" s="24"/>
       <c r="L18" s="2" t="s">
         <v>11</v>
       </c>
@@ -2357,41 +2788,41 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B19" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C19" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D19" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="A19" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B19" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C19" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E19" s="23">
         <v>18</v>
       </c>
-      <c r="F19" s="27">
-        <v>1</v>
-      </c>
-      <c r="G19" s="27">
-        <v>0</v>
-      </c>
-      <c r="H19" s="27">
+      <c r="F19" s="24">
+        <v>1</v>
+      </c>
+      <c r="G19" s="24">
+        <v>0</v>
+      </c>
+      <c r="H19" s="24">
         <v>18</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="24">
         <v>15</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="24">
         <v>8</v>
       </c>
-      <c r="K19" s="27"/>
+      <c r="K19" s="24"/>
       <c r="L19" s="2" t="s">
         <v>11</v>
       </c>
@@ -2400,41 +2831,41 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B20" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C20" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E20" s="26">
+      <c r="A20" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B20" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C20" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E20" s="23">
         <v>19</v>
       </c>
-      <c r="F20" s="27">
-        <v>1</v>
-      </c>
-      <c r="G20" s="27">
-        <v>0</v>
-      </c>
-      <c r="H20" s="27">
+      <c r="F20" s="24">
+        <v>1</v>
+      </c>
+      <c r="G20" s="24">
+        <v>0</v>
+      </c>
+      <c r="H20" s="24">
         <v>15</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="24">
         <v>11</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="24">
         <v>10</v>
       </c>
-      <c r="K20" s="27"/>
+      <c r="K20" s="24"/>
       <c r="L20" s="2" t="s">
         <v>11</v>
       </c>
@@ -2443,84 +2874,84 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B21" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C21" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E21" s="26">
+      <c r="A21" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B21" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C21" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E21" s="23">
         <v>20</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="24">
         <v>2</v>
       </c>
-      <c r="G21" s="27">
-        <v>1</v>
-      </c>
-      <c r="H21" s="27">
+      <c r="G21" s="24">
+        <v>1</v>
+      </c>
+      <c r="H21" s="24">
         <v>22.5</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="24">
         <v>15</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="24">
         <v>13</v>
       </c>
-      <c r="K21" s="27"/>
+      <c r="K21" s="24"/>
       <c r="L21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M21" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B22" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C22" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E22" s="26">
+      <c r="A22" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B22" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C22" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E22" s="23">
         <v>21</v>
       </c>
-      <c r="F22" s="27">
-        <v>0</v>
-      </c>
-      <c r="G22" s="27">
-        <v>0</v>
-      </c>
-      <c r="H22" s="27">
+      <c r="F22" s="24">
+        <v>0</v>
+      </c>
+      <c r="G22" s="24">
+        <v>0</v>
+      </c>
+      <c r="H22" s="24">
         <v>11</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="24">
         <v>17</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="24">
         <v>14</v>
       </c>
-      <c r="K22" s="27"/>
+      <c r="K22" s="24"/>
       <c r="L22" s="2" t="s">
         <v>11</v>
       </c>
@@ -2529,41 +2960,41 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B23" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C23" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E23" s="26">
+      <c r="A23" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B23" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C23" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E23" s="23">
         <v>22</v>
       </c>
-      <c r="F23" s="27">
-        <v>0</v>
-      </c>
-      <c r="G23" s="27">
-        <v>0</v>
-      </c>
-      <c r="H23" s="27">
+      <c r="F23" s="24">
+        <v>0</v>
+      </c>
+      <c r="G23" s="24">
+        <v>0</v>
+      </c>
+      <c r="H23" s="24">
         <v>11</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="24">
         <v>10</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="24">
         <v>10</v>
       </c>
-      <c r="K23" s="27"/>
+      <c r="K23" s="24"/>
       <c r="L23" s="2" t="s">
         <v>11</v>
       </c>
@@ -2572,41 +3003,41 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B24" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C24" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E24" s="26">
+      <c r="A24" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B24" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C24" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E24" s="23">
         <v>23</v>
       </c>
-      <c r="F24" s="27">
-        <v>0</v>
-      </c>
-      <c r="G24" s="27">
-        <v>0</v>
-      </c>
-      <c r="H24" s="27">
+      <c r="F24" s="24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="24">
         <v>10</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="24">
         <v>12</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="24">
         <v>13</v>
       </c>
-      <c r="K24" s="27"/>
+      <c r="K24" s="24"/>
       <c r="L24" s="2" t="s">
         <v>11</v>
       </c>
@@ -2615,41 +3046,41 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B25" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C25" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E25" s="26">
+      <c r="A25" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B25" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C25" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E25" s="23">
         <v>24</v>
       </c>
-      <c r="F25" s="27">
-        <v>0</v>
-      </c>
-      <c r="G25" s="27">
-        <v>0</v>
-      </c>
-      <c r="H25" s="27">
+      <c r="F25" s="24">
+        <v>0</v>
+      </c>
+      <c r="G25" s="24">
+        <v>0</v>
+      </c>
+      <c r="H25" s="24">
         <v>7</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="24">
         <v>17</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="24">
         <v>16</v>
       </c>
-      <c r="K25" s="27"/>
+      <c r="K25" s="24"/>
       <c r="L25" s="2" t="s">
         <v>11</v>
       </c>
@@ -2658,41 +3089,41 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B26" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C26" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E26" s="26">
+      <c r="A26" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B26" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C26" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E26" s="23">
         <v>25</v>
       </c>
-      <c r="F26" s="27">
-        <v>0</v>
-      </c>
-      <c r="G26" s="27">
-        <v>0</v>
-      </c>
-      <c r="H26" s="27">
+      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24">
+        <v>0</v>
+      </c>
+      <c r="H26" s="24">
         <v>7</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="24">
         <v>16</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="24">
         <v>13</v>
       </c>
-      <c r="K26" s="27"/>
+      <c r="K26" s="24"/>
       <c r="L26" s="2" t="s">
         <v>11</v>
       </c>
@@ -2701,84 +3132,84 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B27" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C27" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E27" s="26">
+      <c r="A27" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B27" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C27" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E27" s="23">
         <v>26</v>
       </c>
-      <c r="F27" s="27">
-        <v>0</v>
-      </c>
-      <c r="G27" s="27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="27">
+      <c r="F27" s="24">
+        <v>0</v>
+      </c>
+      <c r="G27" s="24">
+        <v>0</v>
+      </c>
+      <c r="H27" s="24">
         <v>9</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="24">
         <v>15</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="24">
         <v>15</v>
       </c>
-      <c r="K27" s="27"/>
+      <c r="K27" s="24"/>
       <c r="L27" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M27" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B28" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C28" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D28" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E28" s="26">
+      <c r="A28" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B28" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C28" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E28" s="23">
         <v>27</v>
       </c>
-      <c r="F28" s="27">
-        <v>0</v>
-      </c>
-      <c r="G28" s="27">
-        <v>0</v>
-      </c>
-      <c r="H28" s="27">
+      <c r="F28" s="24">
+        <v>0</v>
+      </c>
+      <c r="G28" s="24">
+        <v>0</v>
+      </c>
+      <c r="H28" s="24">
         <v>6</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="24">
         <v>15</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="24">
         <v>14</v>
       </c>
-      <c r="K28" s="27"/>
+      <c r="K28" s="24"/>
       <c r="L28" s="2" t="s">
         <v>11</v>
       </c>
@@ -2787,84 +3218,84 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B29" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C29" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E29" s="26">
+      <c r="A29" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B29" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C29" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E29" s="23">
         <v>28</v>
       </c>
-      <c r="F29" s="27">
-        <v>0</v>
-      </c>
-      <c r="G29" s="27">
-        <v>0</v>
-      </c>
-      <c r="H29" s="27">
+      <c r="F29" s="24">
+        <v>0</v>
+      </c>
+      <c r="G29" s="24">
+        <v>0</v>
+      </c>
+      <c r="H29" s="24">
         <v>8</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="24">
         <v>14</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="24">
         <v>10</v>
       </c>
-      <c r="K29" s="27"/>
+      <c r="K29" s="24"/>
       <c r="L29" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M29" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B30" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C30" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E30" s="26">
+      <c r="A30" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B30" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C30" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E30" s="23">
         <v>29</v>
       </c>
-      <c r="F30" s="27">
-        <v>0</v>
-      </c>
-      <c r="G30" s="27">
-        <v>0</v>
-      </c>
-      <c r="H30" s="27">
+      <c r="F30" s="24">
+        <v>0</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0</v>
+      </c>
+      <c r="H30" s="24">
         <v>5</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="24">
         <v>14</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="24">
         <v>14</v>
       </c>
-      <c r="K30" s="27"/>
+      <c r="K30" s="24"/>
       <c r="L30" s="2" t="s">
         <v>11</v>
       </c>
@@ -2873,41 +3304,41 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B31" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C31" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="20" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="E31" s="26">
+      <c r="A31" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B31" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C31" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="17" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E31" s="23">
         <v>30</v>
       </c>
-      <c r="F31" s="27">
-        <v>0</v>
-      </c>
-      <c r="G31" s="27">
-        <v>0</v>
-      </c>
-      <c r="H31" s="27">
+      <c r="F31" s="24">
+        <v>0</v>
+      </c>
+      <c r="G31" s="24">
+        <v>0</v>
+      </c>
+      <c r="H31" s="24">
         <v>5</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="24">
         <v>11</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J31" s="24">
         <v>8</v>
       </c>
-      <c r="K31" s="27"/>
+      <c r="K31" s="24"/>
       <c r="L31" s="2" t="s">
         <v>11</v>
       </c>
@@ -2916,7 +3347,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F32" s="31"/>
+      <c r="F32" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2925,7 +3356,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF38C871-8477-2D43-81E0-24E1A00BA8D2}">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:L51"/>
@@ -2938,52 +3369,52 @@
   <cols>
     <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="21" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="F1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B2" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C2" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="20" t="str">
+      <c r="A2" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B2" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C2" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -2998,19 +3429,19 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B3" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C3" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="20" t="str">
+      <c r="A3" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B3" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C3" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3025,19 +3456,19 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B4" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C4" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="20" t="str">
+      <c r="A4" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B4" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C4" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3052,19 +3483,19 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B5" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C5" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="20" t="str">
+      <c r="A5" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B5" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C5" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3079,19 +3510,19 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B6" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C6" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="20" t="str">
+      <c r="A6" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B6" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C6" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3105,20 +3536,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B7" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C7" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="20" t="str">
+    <row r="7" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B7" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C7" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3133,19 +3564,19 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B8" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C8" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="20" t="str">
+      <c r="A8" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B8" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C8" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3160,19 +3591,19 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B9" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C9" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="20" t="str">
+      <c r="A9" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B9" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C9" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3187,19 +3618,19 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B10" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C10" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="20" t="str">
+      <c r="A10" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B10" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C10" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3214,19 +3645,19 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B11" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C11" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="20" t="str">
+      <c r="A11" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B11" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C11" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3241,19 +3672,19 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B12" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C12" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="20" t="str">
+      <c r="A12" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B12" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C12" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3268,19 +3699,19 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B13" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C13" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="20" t="str">
+      <c r="A13" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B13" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C13" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3295,19 +3726,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B14" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C14" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="20" t="str">
+      <c r="A14" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B14" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C14" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3322,19 +3753,19 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B15" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C15" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="20" t="str">
+      <c r="A15" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B15" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C15" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3349,19 +3780,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B16" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C16" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="20" t="str">
+      <c r="A16" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B16" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C16" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3376,19 +3807,19 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B17" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C17" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="20" t="str">
+      <c r="A17" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B17" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C17" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3403,19 +3834,19 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B18" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C18" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="20" t="str">
+      <c r="A18" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B18" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C18" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3430,19 +3861,19 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B19" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C19" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D19" s="20" t="str">
+      <c r="A19" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B19" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C19" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3457,19 +3888,19 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B20" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C20" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="20" t="str">
+      <c r="A20" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B20" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C20" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3484,19 +3915,19 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B21" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C21" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="20" t="str">
+      <c r="A21" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B21" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C21" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3511,19 +3942,19 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B22" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C22" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="20" t="str">
+      <c r="A22" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B22" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C22" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3538,19 +3969,19 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B23" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C23" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="20" t="str">
+      <c r="A23" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B23" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C23" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3565,19 +3996,19 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B24" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C24" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="20" t="str">
+      <c r="A24" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B24" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C24" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3592,19 +4023,19 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B25" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C25" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="20" t="str">
+      <c r="A25" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B25" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C25" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3619,19 +4050,19 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B26" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C26" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="20" t="str">
+      <c r="A26" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B26" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C26" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3646,19 +4077,19 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B27" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C27" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="20" t="str">
+      <c r="A27" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B27" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C27" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3673,19 +4104,19 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B28" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C28" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D28" s="20" t="str">
+      <c r="A28" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B28" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C28" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3700,19 +4131,19 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B29" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C29" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="20" t="str">
+      <c r="A29" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B29" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C29" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3727,19 +4158,19 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B30" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C30" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="20" t="str">
+      <c r="A30" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B30" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C30" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3754,19 +4185,19 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B31" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C31" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="20" t="str">
+      <c r="A31" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B31" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C31" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3781,19 +4212,19 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B32" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C32" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="20" t="str">
+      <c r="A32" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B32" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C32" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3808,19 +4239,19 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B33" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C33" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D33" s="20" t="str">
+      <c r="A33" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B33" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C33" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D33" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3835,19 +4266,19 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B34" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C34" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D34" s="20" t="str">
+      <c r="A34" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B34" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C34" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3862,19 +4293,19 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B35" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C35" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D35" s="20" t="str">
+      <c r="A35" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B35" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C35" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3889,19 +4320,19 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B36" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C36" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D36" s="20" t="str">
+      <c r="A36" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B36" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C36" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3916,19 +4347,19 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B37" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C37" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D37" s="20" t="str">
+      <c r="A37" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B37" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C37" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D37" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3943,19 +4374,19 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B38" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C38" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D38" s="20" t="str">
+      <c r="A38" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B38" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C38" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D38" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3970,19 +4401,19 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B39" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C39" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D39" s="20" t="str">
+      <c r="A39" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B39" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C39" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D39" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -3997,19 +4428,19 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B40" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C40" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D40" s="20" t="str">
+      <c r="A40" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B40" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C40" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D40" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4024,19 +4455,19 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B41" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C41" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D41" s="20" t="str">
+      <c r="A41" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B41" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C41" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D41" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4051,19 +4482,19 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B42" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C42" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D42" s="20" t="str">
+      <c r="A42" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B42" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C42" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D42" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4078,19 +4509,19 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B43" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C43" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D43" s="20" t="str">
+      <c r="A43" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B43" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C43" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D43" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4105,19 +4536,19 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B44" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C44" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D44" s="20" t="str">
+      <c r="A44" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B44" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C44" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D44" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4132,19 +4563,19 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B45" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C45" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D45" s="20" t="str">
+      <c r="A45" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B45" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C45" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D45" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4159,19 +4590,19 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B46" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C46" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D46" s="20" t="str">
+      <c r="A46" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B46" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C46" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D46" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4186,19 +4617,19 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B47" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C47" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D47" s="20" t="str">
+      <c r="A47" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B47" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C47" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D47" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4213,19 +4644,19 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B48" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C48" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D48" s="20" t="str">
+      <c r="A48" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B48" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C48" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D48" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4240,19 +4671,19 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B49" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C49" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D49" s="20" t="str">
+      <c r="A49" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B49" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C49" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D49" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4267,19 +4698,19 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B50" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C50" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D50" s="20" t="str">
+      <c r="A50" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B50" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C50" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D50" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4294,19 +4725,19 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="B51" s="20" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="C51" s="20">
-        <f>datos_generales!B$7</f>
-        <v>1</v>
-      </c>
-      <c r="D51" s="20" t="str">
+      <c r="A51" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B51" s="17" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="C51" s="17">
+        <f>datos_generales!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D51" s="17" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4327,7 +4758,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F492BA-48B7-914E-B368-D329519F9D57}">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="B1:I79"/>
@@ -4343,45 +4774,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C2" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E2" s="29" t="str">
+      <c r="B2" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C2" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E2" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4399,19 +4830,19 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C3" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E3" s="29" t="str">
+      <c r="B3" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C3" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E3" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4422,26 +4853,26 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C4" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E4" s="29" t="str">
+      <c r="B4" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C4" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E4" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4452,26 +4883,26 @@
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C5" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E5" s="29" t="str">
+      <c r="B5" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C5" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E5" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4489,19 +4920,19 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C6" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E6" s="29" t="str">
+      <c r="B6" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C6" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E6" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4512,26 +4943,26 @@
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C7" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E7" s="29" t="str">
+      <c r="B7" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C7" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E7" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4542,26 +4973,26 @@
         <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C8" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E8" s="29" t="str">
+      <c r="B8" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C8" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E8" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4579,19 +5010,19 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C9" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E9" s="29" t="str">
+      <c r="B9" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C9" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E9" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4602,26 +5033,26 @@
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C10" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E10" s="29" t="str">
+      <c r="B10" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C10" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E10" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4632,26 +5063,26 @@
         <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C11" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E11" s="29" t="str">
+      <c r="B11" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C11" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E11" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4669,19 +5100,19 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C12" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E12" s="29" t="str">
+      <c r="B12" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C12" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E12" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4692,26 +5123,26 @@
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C13" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E13" s="29" t="str">
+      <c r="B13" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C13" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E13" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4722,26 +5153,26 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C14" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E14" s="29" t="str">
+      <c r="B14" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C14" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E14" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4759,19 +5190,19 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C15" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E15" s="29" t="str">
+      <c r="B15" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C15" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E15" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4782,26 +5213,26 @@
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C16" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E16" s="29" t="str">
+      <c r="B16" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C16" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E16" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4812,26 +5243,26 @@
         <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C17" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E17" s="29" t="str">
+      <c r="B17" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C17" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E17" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4849,19 +5280,19 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C18" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E18" s="29" t="str">
+      <c r="B18" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C18" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E18" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4872,26 +5303,26 @@
         <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C19" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D19" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E19" s="29" t="str">
+      <c r="B19" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C19" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E19" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4902,26 +5333,26 @@
         <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C20" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E20" s="29" t="str">
+      <c r="B20" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C20" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E20" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4939,19 +5370,19 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C21" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E21" s="29" t="str">
+      <c r="B21" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C21" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E21" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4962,26 +5393,26 @@
         <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C22" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E22" s="29" t="str">
+      <c r="B22" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C22" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E22" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -4992,26 +5423,26 @@
         <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C23" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E23" s="29" t="str">
+      <c r="B23" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C23" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E23" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5029,19 +5460,19 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C24" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E24" s="29" t="str">
+      <c r="B24" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C24" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E24" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5052,26 +5483,26 @@
         <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C25" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E25" s="29" t="str">
+      <c r="B25" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C25" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E25" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5082,26 +5513,26 @@
         <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C26" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E26" s="29" t="str">
+      <c r="B26" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C26" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E26" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5112,26 +5543,26 @@
         <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C27" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E27" s="29" t="str">
+      <c r="B27" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C27" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E27" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5149,19 +5580,19 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C28" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D28" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E28" s="29" t="str">
+      <c r="B28" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C28" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E28" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5172,26 +5603,26 @@
         <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C29" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E29" s="29" t="str">
+      <c r="B29" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C29" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E29" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5202,26 +5633,26 @@
         <v>50</v>
       </c>
       <c r="H29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I29">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C30" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E30" s="29" t="str">
+      <c r="B30" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C30" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E30" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5239,19 +5670,19 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C31" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E31" s="29" t="str">
+      <c r="B31" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C31" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E31" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5262,26 +5693,26 @@
         <v>50</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I31">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C32" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E32" s="29" t="str">
+      <c r="B32" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C32" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E32" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5299,19 +5730,19 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C33" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D33" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E33" s="29" t="str">
+      <c r="B33" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C33" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D33" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E33" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5322,26 +5753,26 @@
         <v>50</v>
       </c>
       <c r="H33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I33">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C34" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D34" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E34" s="29" t="str">
+      <c r="B34" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C34" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E34" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5352,26 +5783,26 @@
         <v>50</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C35" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D35" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E35" s="29" t="str">
+      <c r="B35" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C35" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E35" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5389,19 +5820,19 @@
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C36" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D36" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E36" s="29" t="str">
+      <c r="B36" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C36" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E36" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5412,26 +5843,26 @@
         <v>50</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C37" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D37" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E37" s="29" t="str">
+      <c r="B37" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C37" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D37" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E37" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5442,26 +5873,26 @@
         <v>50</v>
       </c>
       <c r="H37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C38" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D38" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E38" s="29" t="str">
+      <c r="B38" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C38" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D38" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E38" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5479,19 +5910,19 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C39" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D39" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E39" s="29" t="str">
+      <c r="B39" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C39" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D39" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E39" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5502,26 +5933,26 @@
         <v>50</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I39">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C40" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D40" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E40" s="29" t="str">
+      <c r="B40" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C40" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D40" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E40" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5539,19 +5970,19 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C41" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D41" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E41" s="29" t="str">
+      <c r="B41" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C41" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D41" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E41" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5562,26 +5993,26 @@
         <v>50</v>
       </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C42" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D42" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E42" s="29" t="str">
+      <c r="B42" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C42" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D42" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E42" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5599,19 +6030,19 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C43" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D43" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E43" s="29" t="str">
+      <c r="B43" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C43" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D43" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E43" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5622,26 +6053,26 @@
         <v>50</v>
       </c>
       <c r="H43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C44" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D44" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E44" s="29" t="str">
+      <c r="B44" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C44" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D44" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E44" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5659,19 +6090,19 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C45" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D45" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E45" s="29" t="str">
+      <c r="B45" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C45" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D45" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E45" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5682,26 +6113,26 @@
         <v>50</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C46" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D46" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E46" s="29" t="str">
+      <c r="B46" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C46" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D46" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E46" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5712,26 +6143,26 @@
         <v>50</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C47" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D47" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E47" s="29" t="str">
+      <c r="B47" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C47" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D47" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E47" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5749,19 +6180,19 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C48" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D48" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E48" s="29" t="str">
+      <c r="B48" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C48" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D48" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E48" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5772,26 +6203,26 @@
         <v>50</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C49" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D49" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E49" s="29" t="str">
+      <c r="B49" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C49" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D49" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E49" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5802,26 +6233,26 @@
         <v>50</v>
       </c>
       <c r="H49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I49">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C50" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D50" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E50" s="29" t="str">
+      <c r="B50" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C50" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D50" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E50" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5839,19 +6270,19 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C51" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D51" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E51" s="29" t="str">
+      <c r="B51" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C51" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D51" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E51" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5862,26 +6293,26 @@
         <v>50</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I51">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C52" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D52" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E52" s="29" t="str">
+      <c r="B52" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C52" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D52" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E52" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5892,26 +6323,26 @@
         <v>50</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I52">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C53" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D53" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E53" s="29" t="str">
+      <c r="B53" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C53" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D53" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E53" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5929,19 +6360,19 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C54" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D54" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E54" s="29" t="str">
+      <c r="B54" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C54" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D54" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E54" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5952,26 +6383,26 @@
         <v>50</v>
       </c>
       <c r="H54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I54">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C55" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D55" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E55" s="29" t="str">
+      <c r="B55" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C55" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D55" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E55" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -5982,26 +6413,26 @@
         <v>50</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I55">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C56" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D56" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E56" s="29" t="str">
+      <c r="B56" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C56" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D56" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E56" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6019,19 +6450,19 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C57" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D57" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E57" s="29" t="str">
+      <c r="B57" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C57" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D57" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E57" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6042,26 +6473,26 @@
         <v>50</v>
       </c>
       <c r="H57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I57">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C58" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D58" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E58" s="29" t="str">
+      <c r="B58" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C58" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D58" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E58" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6072,26 +6503,26 @@
         <v>50</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I58">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C59" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D59" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E59" s="29" t="str">
+      <c r="B59" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C59" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D59" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E59" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6109,19 +6540,19 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C60" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D60" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E60" s="29" t="str">
+      <c r="B60" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C60" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D60" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E60" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6132,26 +6563,26 @@
         <v>50</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C61" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D61" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E61" s="29" t="str">
+      <c r="B61" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C61" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D61" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E61" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6169,19 +6600,19 @@
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C62" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D62" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E62" s="29" t="str">
+      <c r="B62" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C62" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D62" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E62" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6192,26 +6623,26 @@
         <v>50</v>
       </c>
       <c r="H62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C63" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D63" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E63" s="29" t="str">
+      <c r="B63" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C63" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D63" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E63" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6229,19 +6660,19 @@
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C64" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D64" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E64" s="29" t="str">
+      <c r="B64" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C64" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D64" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E64" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6252,26 +6683,26 @@
         <v>50</v>
       </c>
       <c r="H64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I64">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C65" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D65" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E65" s="29" t="str">
+      <c r="B65" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C65" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D65" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E65" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6289,19 +6720,19 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C66" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D66" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E66" s="29" t="str">
+      <c r="B66" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C66" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D66" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E66" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6312,26 +6743,26 @@
         <v>50</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C67" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D67" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E67" s="29" t="str">
+      <c r="B67" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C67" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D67" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E67" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6349,19 +6780,19 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C68" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D68" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E68" s="29" t="str">
+      <c r="B68" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C68" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D68" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E68" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6372,26 +6803,26 @@
         <v>50</v>
       </c>
       <c r="H68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I68">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C69" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D69" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E69" s="29" t="str">
+      <c r="B69" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C69" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D69" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E69" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6409,19 +6840,19 @@
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C70" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D70" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E70" s="29" t="str">
+      <c r="B70" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C70" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D70" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E70" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6432,26 +6863,26 @@
         <v>50</v>
       </c>
       <c r="H70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I70">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C71" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D71" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E71" s="29" t="str">
+      <c r="B71" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C71" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D71" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E71" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6469,19 +6900,19 @@
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C72" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D72" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E72" s="29" t="str">
+      <c r="B72" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C72" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D72" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E72" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6492,26 +6923,26 @@
         <v>50</v>
       </c>
       <c r="H72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I72">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C73" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D73" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E73" s="29" t="str">
+      <c r="B73" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C73" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D73" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E73" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6529,19 +6960,19 @@
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C74" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D74" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E74" s="29" t="str">
+      <c r="B74" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C74" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D74" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E74" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6552,26 +6983,26 @@
         <v>50</v>
       </c>
       <c r="H74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C75" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D75" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E75" s="29" t="str">
+      <c r="B75" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C75" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D75" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E75" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6589,19 +7020,19 @@
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C76" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D76" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E76" s="29" t="str">
+      <c r="B76" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C76" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D76" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E76" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6612,26 +7043,26 @@
         <v>50</v>
       </c>
       <c r="H76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C77" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D77" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E77" s="29" t="str">
+      <c r="B77" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C77" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D77" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E77" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6642,26 +7073,26 @@
         <v>50</v>
       </c>
       <c r="H77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I77">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C78" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D78" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E78" s="29" t="str">
+      <c r="B78" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C78" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D78" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E78" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6679,19 +7110,19 @@
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C79" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D79" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E79" s="29" t="str">
+      <c r="B79" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C79" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D79" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E79" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6702,7 +7133,7 @@
         <v>50</v>
       </c>
       <c r="H79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I79">
         <v>2</v>
@@ -6715,13 +7146,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671E72F9-9617-4C44-B18A-ABCB07839B27}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6732,73 +7163,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C2" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E2" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C2" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E2" s="29" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>85</v>
       </c>
       <c r="J2">
         <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C3" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E3" s="29" t="str">
+      <c r="B3" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C3" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E3" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6806,26 +7237,26 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J3">
         <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C4" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E4" s="29" t="str">
+      <c r="B4" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C4" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E4" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6840,19 +7271,19 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C5" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E5" s="29" t="str">
+      <c r="B5" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C5" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E5" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6860,26 +7291,26 @@
         <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J5">
         <v>0.53333333333333299</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C6" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E6" s="29" t="str">
+      <c r="B6" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C6" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E6" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6887,26 +7318,26 @@
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6">
         <v>0.53333333333333299</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C7" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E7" s="29" t="str">
+      <c r="B7" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C7" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E7" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6914,26 +7345,26 @@
         <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7">
         <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C8" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E8" s="29" t="str">
+      <c r="B8" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C8" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E8" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6941,26 +7372,26 @@
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J8">
         <v>0.266666666666667</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C9" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E9" s="29" t="str">
+      <c r="B9" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C9" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E9" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6968,26 +7399,26 @@
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>0.266666666666667</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C10" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E10" s="29" t="str">
+      <c r="B10" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C10" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E10" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -6995,26 +7426,26 @@
         <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J10">
         <v>0.266666666666667</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C11" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E11" s="29" t="str">
+      <c r="B11" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C11" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E11" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -7022,26 +7453,26 @@
         <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J11">
         <v>0.266666666666667</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C12" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E12" s="29" t="str">
+      <c r="B12" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C12" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E12" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -7049,26 +7480,26 @@
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J12">
         <v>0.133333333333333</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C13" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E13" s="29" t="str">
+      <c r="B13" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C13" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E13" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -7076,26 +7507,26 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J13">
         <v>0.133333333333333</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C14" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E14" s="29" t="str">
+      <c r="B14" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C14" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E14" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -7103,26 +7534,26 @@
         <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J14">
         <v>0.133333333333333</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="20" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C15" s="29">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="29" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E15" s="29" t="str">
+      <c r="B15" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="C15" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="E15" s="26" t="str">
         <f>datos_generales!B$8</f>
         <v>AQ-BE-F1</v>
       </c>
@@ -7130,7 +7561,7 @@
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J15">
         <v>0.133333333333333</v>
@@ -7143,7 +7574,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3AE587-8D7C-D144-8184-16536F9A06BF}">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:C3"/>

--- a/exdata/ficha_campo.xlsx
+++ b/exdata/ficha_campo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/GoogleDrive-ajperez@go.ugr.es/My Drive/_proyectos/fameLorite/fameR/exdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B760AC-82B7-844B-8D75-6F23C457194D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8CCF9B-471F-C944-8C00-873F8D55565C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{D6981F94-86A3-C24C-A176-9B22273DF06F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="7" xr2:uid="{D6981F94-86A3-C24C-A176-9B22273DF06F}"/>
   </bookViews>
   <sheets>
     <sheet name="datos_generales" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="140">
   <si>
     <t>aquilegia</t>
   </si>
@@ -459,6 +459,12 @@
   </si>
   <si>
     <t>25830 | Proyección UTM ETRS89 Huso 30 N</t>
+  </si>
+  <si>
+    <t>Jardín Botánico Torre del Vinagre</t>
+  </si>
+  <si>
+    <t>especie_acomp</t>
   </si>
 </sst>
 </file>
@@ -661,10 +667,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -987,8 +993,8 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,29 +1075,41 @@
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="33">
-        <v>45270</v>
+      <c r="B9" s="34">
+        <v>20231210</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="B10" s="32" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="B11" s="32">
+        <v>690</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="B12" s="32">
+        <v>511241</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="B13" s="32">
+        <v>4207487</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1149,7 +1167,7 @@
       <c r="A24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="33">
         <v>50</v>
       </c>
     </row>
@@ -1157,7 +1175,7 @@
       <c r="A25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="33">
         <v>103</v>
       </c>
     </row>
@@ -1165,7 +1183,7 @@
       <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="33">
         <f>B$25/B$24</f>
         <v>2.06</v>
       </c>
@@ -1179,7 +1197,7 @@
       <c r="A29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="33">
         <v>50</v>
       </c>
     </row>
@@ -1187,7 +1205,7 @@
       <c r="A30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="33">
         <v>75</v>
       </c>
     </row>
@@ -1195,7 +1213,7 @@
       <c r="A31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="33">
         <v>41</v>
       </c>
     </row>
@@ -1203,13 +1221,13 @@
       <c r="A32" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="33">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="formato dd-mm-yyyy" prompt="formato dd-mm-yyyy" sqref="B9" xr:uid="{E9B0023C-2EDF-6446-8F93-430411DFB81C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="formato fecha" prompt="YYYYMMDD" sqref="B9" xr:uid="{E9B0023C-2EDF-6446-8F93-430411DFB81C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1330,7 +1348,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>CONCATENATE(B2," | ", C2)</f>
+        <f t="shared" ref="A2:A17" si="0">CONCATENATE(B2," | ", C2)</f>
         <v>3857 | Proyección WGS84 / Pseudo-Mercator</v>
       </c>
       <c r="B2" s="28">
@@ -1345,7 +1363,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>CONCATENATE(B3," | ", C3)</f>
+        <f t="shared" si="0"/>
         <v>4230 | Coordenadas Geográficas ED50</v>
       </c>
       <c r="B3" s="28">
@@ -1360,7 +1378,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>CONCATENATE(B4," | ", C4)</f>
+        <f t="shared" si="0"/>
         <v>4258 | Coordenadas Elipsoidales ETRS89 IDEE</v>
       </c>
       <c r="B4" s="28">
@@ -1375,7 +1393,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>CONCATENATE(B5," | ", C5)</f>
+        <f t="shared" si="0"/>
         <v>4326 | Coordenadas Geográficas WGS84</v>
       </c>
       <c r="B5" s="28">
@@ -1390,7 +1408,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>CONCATENATE(B6," | ", C6)</f>
+        <f t="shared" si="0"/>
         <v>23028 | Proyección UTM ED50 Huso 28 N</v>
       </c>
       <c r="B6" s="28">
@@ -1405,7 +1423,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>CONCATENATE(B7," | ", C7)</f>
+        <f t="shared" si="0"/>
         <v>23029 | Proyección UTM ED50 Huso 29 N</v>
       </c>
       <c r="B7" s="28">
@@ -1420,7 +1438,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>CONCATENATE(B8," | ", C8)</f>
+        <f t="shared" si="0"/>
         <v>23030 | Proyección UTM ED50 Huso 30 N</v>
       </c>
       <c r="B8" s="28">
@@ -1435,7 +1453,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>CONCATENATE(B9," | ", C9)</f>
+        <f t="shared" si="0"/>
         <v>23031 | Proyección UTM ED50 Huso 31 N</v>
       </c>
       <c r="B9" s="28">
@@ -1450,7 +1468,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>CONCATENATE(B10," | ", C10)</f>
+        <f t="shared" si="0"/>
         <v>25828 | Proyección UTM ETRS89 Huso 28 N</v>
       </c>
       <c r="B10" s="28">
@@ -1465,7 +1483,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>CONCATENATE(B11," | ", C11)</f>
+        <f t="shared" si="0"/>
         <v>25829 | Proyección UTM ETRS89 Huso 29 N</v>
       </c>
       <c r="B11" s="28">
@@ -1480,7 +1498,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>CONCATENATE(B12," | ", C12)</f>
+        <f t="shared" si="0"/>
         <v>25830 | Proyección UTM ETRS89 Huso 30 N</v>
       </c>
       <c r="B12" s="28">
@@ -1495,7 +1513,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>CONCATENATE(B13," | ", C13)</f>
+        <f t="shared" si="0"/>
         <v>25831 | Proyección UTM ETRS89 Huso 31 N</v>
       </c>
       <c r="B13" s="28">
@@ -1510,7 +1528,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>CONCATENATE(B14," | ", C14)</f>
+        <f t="shared" si="0"/>
         <v>32628 | Proyección UTM WGS84 Huso 28 N</v>
       </c>
       <c r="B14" s="28">
@@ -1525,7 +1543,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>CONCATENATE(B15," | ", C15)</f>
+        <f t="shared" si="0"/>
         <v>32629 | Proyección UTM WGS84 Huso 29 N</v>
       </c>
       <c r="B15" s="28">
@@ -1540,7 +1558,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>CONCATENATE(B16," | ", C16)</f>
+        <f t="shared" si="0"/>
         <v>32630 | Proyección UTM WGS84 Huso 30 N</v>
       </c>
       <c r="B16" s="28">
@@ -1555,7 +1573,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>CONCATENATE(B17," | ", C17)</f>
+        <f t="shared" si="0"/>
         <v>32631 | Proyección UTM WGS84 Huso 31 N</v>
       </c>
       <c r="B17" s="28">
@@ -1598,13 +1616,13 @@
   </sheetPr>
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H2"/>
+    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="6.1640625" customWidth="1"/>
@@ -1778,12 +1796,12 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
@@ -1922,9 +1940,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4761,2381 +4777,2381 @@
   <sheetPr codeName="Sheet7">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B1:I79"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B2" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D2" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B3" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D3" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B4" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D4" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B5" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D5" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B6" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D6" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B7" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D7" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B8" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D8" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B9" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D9" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B10" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D10" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B11" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D11" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B12" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D12" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B13" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D13" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B14" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D14" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B15" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D15" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B16" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D16" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B17" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D17" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B18" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D18" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B19" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D19" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B20" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D20" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B21" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D21" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B22" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D22" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22">
         <v>10</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="22" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B23" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D23" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B24" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D24" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B25" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D25" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B26" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D26" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B27" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D27" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B28" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D28" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B29" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C29" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D29" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B30" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D30" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B31" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D31" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B32" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C32" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D32" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B33" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D33" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E33">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B34" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C34" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D34" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B35" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D35" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B36" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C36" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D36" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B37" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C37" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D37" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E37">
+        <v>12</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B38" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C38" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D38" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B39" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C39" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D39" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E39">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B40" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C40" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D40" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E40">
+        <v>14</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B41" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C41" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D41" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E41">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B42" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C42" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D42" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E42">
+        <v>15</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B43" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D43" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B44" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C44" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D44" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E44">
+        <v>16</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B45" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C45" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D45" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E45">
+        <v>16</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B46" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C46" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D46" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E46">
+        <v>16</v>
+      </c>
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B47" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C47" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D47" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E47">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B48" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C48" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D48" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E48">
+        <v>17</v>
+      </c>
+      <c r="F48">
+        <v>50</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B49" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C49" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D49" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E49">
+        <v>17</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B50" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C50" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D50" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E50">
         <v>18</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B51" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C51" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D51" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E51">
+        <v>18</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B52" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C52" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D52" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E52">
+        <v>18</v>
+      </c>
+      <c r="F52">
+        <v>50</v>
+      </c>
+      <c r="G52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B53" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C53" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D53" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E53">
         <v>19</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="22" t="s">
+      <c r="F53">
+        <v>50</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B54" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C54" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D54" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E54">
+        <v>19</v>
+      </c>
+      <c r="F54">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B55" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C55" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D55" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E55">
+        <v>19</v>
+      </c>
+      <c r="F55">
+        <v>50</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B56" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C56" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D56" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E56">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C2" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E2" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F56">
+        <v>50</v>
+      </c>
+      <c r="G56" t="s">
         <v>11</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C3" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E3" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B57" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C57" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D57" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B58" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C58" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D58" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+      <c r="F58">
+        <v>50</v>
+      </c>
+      <c r="G58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B59" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C59" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D59" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E59">
         <v>21</v>
       </c>
-      <c r="I3">
+      <c r="F59">
+        <v>50</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B60" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C60" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D60" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E60">
+        <v>21</v>
+      </c>
+      <c r="F60">
+        <v>50</v>
+      </c>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B61" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C61" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D61" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E61">
+        <v>22</v>
+      </c>
+      <c r="F61">
+        <v>50</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B62" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C62" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D62" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E62">
+        <v>22</v>
+      </c>
+      <c r="F62">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B63" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C63" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D63" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E63">
+        <v>23</v>
+      </c>
+      <c r="F63">
+        <v>50</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B64" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C64" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D64" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E64">
+        <v>23</v>
+      </c>
+      <c r="F64">
+        <v>50</v>
+      </c>
+      <c r="G64" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B65" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C65" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D65" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E65">
+        <v>24</v>
+      </c>
+      <c r="F65">
+        <v>50</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C4" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E4" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C5" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E5" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B66" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C66" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D66" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E66">
+        <v>24</v>
+      </c>
+      <c r="F66">
+        <v>50</v>
+      </c>
+      <c r="G66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B67" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C67" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D67" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E67">
+        <v>25</v>
+      </c>
+      <c r="F67">
+        <v>50</v>
+      </c>
+      <c r="G67" t="s">
         <v>11</v>
       </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C6" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E6" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C7" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E7" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="H67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B68" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C68" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D68" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E68">
+        <v>25</v>
+      </c>
+      <c r="F68">
+        <v>50</v>
+      </c>
+      <c r="G68" t="s">
         <v>23</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C8" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E8" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F8">
+      <c r="H68">
         <v>3</v>
       </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B69" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C69" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D69" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E69">
+        <v>26</v>
+      </c>
+      <c r="F69">
+        <v>50</v>
+      </c>
+      <c r="G69" t="s">
         <v>11</v>
       </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C9" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E9" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F9">
+      <c r="H69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B70" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C70" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D70" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E70">
+        <v>26</v>
+      </c>
+      <c r="F70">
+        <v>50</v>
+      </c>
+      <c r="G70" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B71" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C71" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D71" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E71">
+        <v>27</v>
+      </c>
+      <c r="F71">
+        <v>50</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B72" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C72" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D72" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E72">
+        <v>27</v>
+      </c>
+      <c r="F72">
+        <v>50</v>
+      </c>
+      <c r="G72" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72">
         <v>3</v>
       </c>
-      <c r="G9">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C10" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E10" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B73" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C73" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D73" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E73">
+        <v>28</v>
+      </c>
+      <c r="F73">
+        <v>50</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B74" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C74" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D74" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E74">
+        <v>28</v>
+      </c>
+      <c r="F74">
+        <v>50</v>
+      </c>
+      <c r="G74" t="s">
         <v>23</v>
       </c>
-      <c r="I10">
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B75" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C75" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D75" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E75">
+        <v>29</v>
+      </c>
+      <c r="F75">
+        <v>50</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B76" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C76" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D76" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E76">
+        <v>29</v>
+      </c>
+      <c r="F76">
+        <v>50</v>
+      </c>
+      <c r="G76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B77" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C77" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D77" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E77">
+        <v>29</v>
+      </c>
+      <c r="F77">
+        <v>50</v>
+      </c>
+      <c r="G77" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C11" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E11" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B78" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C78" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D78" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E78">
+        <v>30</v>
+      </c>
+      <c r="F78">
+        <v>50</v>
+      </c>
+      <c r="G78" t="s">
         <v>11</v>
       </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C12" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E12" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C13" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E13" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B79" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C79" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
+      </c>
+      <c r="D79" s="26" t="str">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E79">
+        <v>30</v>
+      </c>
+      <c r="F79">
+        <v>50</v>
+      </c>
+      <c r="G79" t="s">
         <v>23</v>
       </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C14" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E14" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>50</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C15" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E15" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>50</v>
-      </c>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C16" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E16" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>50</v>
-      </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C17" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E17" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>50</v>
-      </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C18" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E18" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
-      </c>
-      <c r="H18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C19" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D19" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E19" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
-      <c r="G19">
-        <v>50</v>
-      </c>
-      <c r="H19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C20" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E20" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-      <c r="G20">
-        <v>50</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C21" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E21" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-      <c r="G21">
-        <v>50</v>
-      </c>
-      <c r="H21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C22" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E22" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F22">
-        <v>7</v>
-      </c>
-      <c r="G22">
-        <v>50</v>
-      </c>
-      <c r="H22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C23" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E23" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F23">
-        <v>8</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C24" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E24" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F24">
-        <v>8</v>
-      </c>
-      <c r="G24">
-        <v>50</v>
-      </c>
-      <c r="H24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C25" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E25" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="G25">
-        <v>50</v>
-      </c>
-      <c r="H25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C26" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E26" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <v>50</v>
-      </c>
-      <c r="H26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C27" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E27" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F27">
-        <v>9</v>
-      </c>
-      <c r="G27">
-        <v>50</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C28" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D28" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E28" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F28">
-        <v>9</v>
-      </c>
-      <c r="G28">
-        <v>50</v>
-      </c>
-      <c r="H28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C29" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E29" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F29">
-        <v>9</v>
-      </c>
-      <c r="G29">
-        <v>50</v>
-      </c>
-      <c r="H29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C30" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E30" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F30">
-        <v>10</v>
-      </c>
-      <c r="G30">
-        <v>50</v>
-      </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C31" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E31" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="G31">
-        <v>50</v>
-      </c>
-      <c r="H31" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C32" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E32" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F32">
-        <v>11</v>
-      </c>
-      <c r="G32">
-        <v>50</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C33" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D33" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E33" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F33">
-        <v>11</v>
-      </c>
-      <c r="G33">
-        <v>50</v>
-      </c>
-      <c r="H33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C34" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D34" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E34" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F34">
-        <v>11</v>
-      </c>
-      <c r="G34">
-        <v>50</v>
-      </c>
-      <c r="H34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C35" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D35" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E35" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F35">
-        <v>12</v>
-      </c>
-      <c r="G35">
-        <v>50</v>
-      </c>
-      <c r="H35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C36" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D36" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E36" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F36">
-        <v>12</v>
-      </c>
-      <c r="G36">
-        <v>50</v>
-      </c>
-      <c r="H36" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C37" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D37" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E37" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F37">
-        <v>12</v>
-      </c>
-      <c r="G37">
-        <v>50</v>
-      </c>
-      <c r="H37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C38" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D38" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E38" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F38">
-        <v>13</v>
-      </c>
-      <c r="G38">
-        <v>50</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C39" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D39" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E39" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F39">
-        <v>13</v>
-      </c>
-      <c r="G39">
-        <v>50</v>
-      </c>
-      <c r="H39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C40" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D40" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E40" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F40">
-        <v>14</v>
-      </c>
-      <c r="G40">
-        <v>50</v>
-      </c>
-      <c r="H40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C41" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D41" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E41" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F41">
-        <v>14</v>
-      </c>
-      <c r="G41">
-        <v>50</v>
-      </c>
-      <c r="H41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C42" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D42" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E42" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F42">
-        <v>15</v>
-      </c>
-      <c r="G42">
-        <v>50</v>
-      </c>
-      <c r="H42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C43" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D43" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E43" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F43">
-        <v>15</v>
-      </c>
-      <c r="G43">
-        <v>50</v>
-      </c>
-      <c r="H43" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C44" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D44" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E44" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F44">
-        <v>16</v>
-      </c>
-      <c r="G44">
-        <v>50</v>
-      </c>
-      <c r="H44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C45" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D45" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E45" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F45">
-        <v>16</v>
-      </c>
-      <c r="G45">
-        <v>50</v>
-      </c>
-      <c r="H45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C46" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D46" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E46" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F46">
-        <v>16</v>
-      </c>
-      <c r="G46">
-        <v>50</v>
-      </c>
-      <c r="H46" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C47" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D47" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E47" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F47">
-        <v>17</v>
-      </c>
-      <c r="G47">
-        <v>50</v>
-      </c>
-      <c r="H47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C48" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D48" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E48" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F48">
-        <v>17</v>
-      </c>
-      <c r="G48">
-        <v>50</v>
-      </c>
-      <c r="H48" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C49" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D49" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E49" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F49">
-        <v>17</v>
-      </c>
-      <c r="G49">
-        <v>50</v>
-      </c>
-      <c r="H49" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C50" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D50" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E50" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F50">
-        <v>18</v>
-      </c>
-      <c r="G50">
-        <v>50</v>
-      </c>
-      <c r="H50" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C51" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D51" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E51" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F51">
-        <v>18</v>
-      </c>
-      <c r="G51">
-        <v>50</v>
-      </c>
-      <c r="H51" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C52" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D52" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E52" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F52">
-        <v>18</v>
-      </c>
-      <c r="G52">
-        <v>50</v>
-      </c>
-      <c r="H52" t="s">
-        <v>23</v>
-      </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C53" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D53" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E53" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F53">
-        <v>19</v>
-      </c>
-      <c r="G53">
-        <v>50</v>
-      </c>
-      <c r="H53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C54" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D54" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E54" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F54">
-        <v>19</v>
-      </c>
-      <c r="G54">
-        <v>50</v>
-      </c>
-      <c r="H54" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C55" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D55" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E55" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F55">
-        <v>19</v>
-      </c>
-      <c r="G55">
-        <v>50</v>
-      </c>
-      <c r="H55" t="s">
-        <v>22</v>
-      </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C56" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D56" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E56" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F56">
-        <v>20</v>
-      </c>
-      <c r="G56">
-        <v>50</v>
-      </c>
-      <c r="H56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C57" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D57" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E57" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F57">
-        <v>20</v>
-      </c>
-      <c r="G57">
-        <v>50</v>
-      </c>
-      <c r="H57" t="s">
-        <v>25</v>
-      </c>
-      <c r="I57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C58" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D58" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E58" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F58">
-        <v>20</v>
-      </c>
-      <c r="G58">
-        <v>50</v>
-      </c>
-      <c r="H58" t="s">
-        <v>23</v>
-      </c>
-      <c r="I58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C59" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D59" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E59" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F59">
-        <v>21</v>
-      </c>
-      <c r="G59">
-        <v>50</v>
-      </c>
-      <c r="H59" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C60" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D60" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E60" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F60">
-        <v>21</v>
-      </c>
-      <c r="G60">
-        <v>50</v>
-      </c>
-      <c r="H60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C61" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D61" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E61" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F61">
-        <v>22</v>
-      </c>
-      <c r="G61">
-        <v>50</v>
-      </c>
-      <c r="H61" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C62" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D62" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E62" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F62">
-        <v>22</v>
-      </c>
-      <c r="G62">
-        <v>50</v>
-      </c>
-      <c r="H62" t="s">
-        <v>23</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C63" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D63" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E63" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F63">
-        <v>23</v>
-      </c>
-      <c r="G63">
-        <v>50</v>
-      </c>
-      <c r="H63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C64" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D64" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E64" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F64">
-        <v>23</v>
-      </c>
-      <c r="G64">
-        <v>50</v>
-      </c>
-      <c r="H64" t="s">
-        <v>23</v>
-      </c>
-      <c r="I64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C65" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D65" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E65" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F65">
-        <v>24</v>
-      </c>
-      <c r="G65">
-        <v>50</v>
-      </c>
-      <c r="H65" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C66" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D66" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E66" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F66">
-        <v>24</v>
-      </c>
-      <c r="G66">
-        <v>50</v>
-      </c>
-      <c r="H66" t="s">
-        <v>23</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C67" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D67" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E67" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F67">
-        <v>25</v>
-      </c>
-      <c r="G67">
-        <v>50</v>
-      </c>
-      <c r="H67" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C68" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D68" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E68" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F68">
-        <v>25</v>
-      </c>
-      <c r="G68">
-        <v>50</v>
-      </c>
-      <c r="H68" t="s">
-        <v>23</v>
-      </c>
-      <c r="I68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C69" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D69" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E69" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F69">
-        <v>26</v>
-      </c>
-      <c r="G69">
-        <v>50</v>
-      </c>
-      <c r="H69" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C70" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D70" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E70" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F70">
-        <v>26</v>
-      </c>
-      <c r="G70">
-        <v>50</v>
-      </c>
-      <c r="H70" t="s">
-        <v>23</v>
-      </c>
-      <c r="I70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C71" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D71" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E71" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F71">
-        <v>27</v>
-      </c>
-      <c r="G71">
-        <v>50</v>
-      </c>
-      <c r="H71" t="s">
-        <v>11</v>
-      </c>
-      <c r="I71">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C72" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D72" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E72" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F72">
-        <v>27</v>
-      </c>
-      <c r="G72">
-        <v>50</v>
-      </c>
-      <c r="H72" t="s">
-        <v>23</v>
-      </c>
-      <c r="I72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C73" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D73" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E73" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F73">
-        <v>28</v>
-      </c>
-      <c r="G73">
-        <v>50</v>
-      </c>
-      <c r="H73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C74" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D74" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E74" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F74">
-        <v>28</v>
-      </c>
-      <c r="G74">
-        <v>50</v>
-      </c>
-      <c r="H74" t="s">
-        <v>23</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C75" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D75" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E75" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F75">
-        <v>29</v>
-      </c>
-      <c r="G75">
-        <v>50</v>
-      </c>
-      <c r="H75" t="s">
-        <v>11</v>
-      </c>
-      <c r="I75">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C76" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D76" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E76" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F76">
-        <v>29</v>
-      </c>
-      <c r="G76">
-        <v>50</v>
-      </c>
-      <c r="H76" t="s">
-        <v>24</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C77" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D77" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E77" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F77">
-        <v>29</v>
-      </c>
-      <c r="G77">
-        <v>50</v>
-      </c>
-      <c r="H77" t="s">
-        <v>23</v>
-      </c>
-      <c r="I77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C78" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D78" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E78" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F78">
-        <v>30</v>
-      </c>
-      <c r="G78">
-        <v>50</v>
-      </c>
-      <c r="H78" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C79" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
-      </c>
-      <c r="D79" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E79" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F79">
-        <v>30</v>
-      </c>
-      <c r="G79">
-        <v>50</v>
-      </c>
-      <c r="H79" t="s">
-        <v>23</v>
-      </c>
-      <c r="I79">
+      <c r="H79">
         <v>2</v>
       </c>
     </row>
@@ -7149,421 +7165,420 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="7" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="16" t="s">
         <v>49</v>
       </c>
+      <c r="E1" s="22" t="s">
+        <v>81</v>
+      </c>
       <c r="F1" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="22"/>
+        <v>139</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>99</v>
+      </c>
       <c r="H1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C2" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B2" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
       </c>
       <c r="D2" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E2" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="J2">
+      <c r="H2">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C3" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B3" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
       </c>
       <c r="D3" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E3" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
         <v>84</v>
       </c>
-      <c r="J3">
+      <c r="H3">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C4" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B4" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
       </c>
       <c r="D4" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E4" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="J4">
+      <c r="H4">
         <v>0.53333333333333299</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C5" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B5" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
       </c>
       <c r="D5" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E5" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
         <v>85</v>
       </c>
-      <c r="J5">
+      <c r="H5">
         <v>0.53333333333333299</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C6" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B6" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
       </c>
       <c r="D6" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E6" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="J6">
+      <c r="H6">
         <v>0.53333333333333299</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C7" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B7" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
       </c>
       <c r="D7" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E7" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F7">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="J7">
+      <c r="H7">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C8" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B8" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
       </c>
       <c r="D8" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E8" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F8">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
         <v>86</v>
       </c>
-      <c r="J8">
+      <c r="H8">
         <v>0.266666666666667</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C9" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B9" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
       </c>
       <c r="D9" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E9" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F9">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="J9">
+      <c r="H9">
         <v>0.266666666666667</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C10" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B10" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
       </c>
       <c r="D10" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E10" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
         <v>87</v>
       </c>
-      <c r="J10">
+      <c r="H10">
         <v>0.266666666666667</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C11" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B11" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
       </c>
       <c r="D11" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E11" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
         <v>88</v>
       </c>
-      <c r="J11">
+      <c r="H11">
         <v>0.266666666666667</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C12" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B12" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
       </c>
       <c r="D12" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E12" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
         <v>89</v>
       </c>
-      <c r="J12">
+      <c r="H12">
         <v>0.133333333333333</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C13" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B13" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
       </c>
       <c r="D13" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E13" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F13">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
         <v>90</v>
       </c>
-      <c r="J13">
+      <c r="H13">
         <v>0.133333333333333</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C14" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B14" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
       </c>
       <c r="D14" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E14" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-      <c r="H14" t="s">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
         <v>91</v>
       </c>
-      <c r="J14">
+      <c r="H14">
         <v>0.133333333333333</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="str">
-        <f>datos_generales!B$3</f>
-        <v>aquilegia</v>
-      </c>
-      <c r="C15" s="26">
-        <f>datos_generales!B$5</f>
-        <v>1</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="str">
+        <f>datos_generales!B$3</f>
+        <v>aquilegia</v>
+      </c>
+      <c r="B15" s="26">
+        <f>datos_generales!B$5</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="26" t="str">
+        <f>datos_generales!B$6</f>
+        <v>fuera</v>
       </c>
       <c r="D15" s="26" t="str">
-        <f>datos_generales!B$6</f>
-        <v>fuera</v>
-      </c>
-      <c r="E15" s="26" t="str">
-        <f>datos_generales!B$8</f>
-        <v>AQ-BE-F1</v>
-      </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
-      <c r="H15" t="s">
+        <f>datos_generales!B$8</f>
+        <v>AQ-BE-F1</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
         <v>73</v>
       </c>
-      <c r="J15">
+      <c r="H15">
         <v>0.133333333333333</v>
       </c>
     </row>
